--- a/Patient_List.xlsx
+++ b/Patient_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Patient ID</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>8Ok2lgrst0QWw1OYIF2YnA==:NmFuv1V4BB+OlZoZPqgdS8Ols0f35N0KkEtVxkS2TV8=</t>
+  </si>
+  <si>
+    <t>lasmdl@amlsmd.com</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>24</v>

--- a/Patient_List.xlsx
+++ b/Patient_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A48D1-11FC-42DD-8C1D-B3163A7D4DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288DF93-FB19-43B8-94A8-F5B84D60EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Patient ID</t>
   </si>
@@ -100,16 +100,25 @@
     <t>lol, asdqwe, lala, ijqwe, hi, qwet, ASD</t>
   </si>
   <si>
-    <t>qpweo@gmail.com</t>
-  </si>
-  <si>
     <t>Card Details</t>
   </si>
   <si>
-    <t>8Ok2lgrst0QWw1OYIF2YnA==:NmFuv1V4BB+OlZoZPqgdS8Ols0f35N0KkEtVxkS2TV8=</t>
-  </si>
-  <si>
-    <t>lasmdl@amlsmd.com</t>
+    <t>oasdoad@mamamama.com</t>
+  </si>
+  <si>
+    <t>12983283</t>
+  </si>
+  <si>
+    <t>12983283, askdoaskdoaskdoas</t>
+  </si>
+  <si>
+    <t>12983283, askdoaskdoaskdoas, oaksd,oasd</t>
+  </si>
+  <si>
+    <t>oqNin17WeN2es8ny0ZL9kA==:Bwzv0bwTtUrKQA3UlRPOog8BOlhGmKVjU9gjAfYQkYA=</t>
+  </si>
+  <si>
+    <t>aosksdod@ioioioi.com</t>
   </si>
 </sst>
 </file>
@@ -506,16 +515,16 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="31.7109375"/>
-    <col min="7" max="7" customWidth="true" width="24.5703125"/>
+    <col min="6" max="6" customWidth="true" width="31.6640625"/>
+    <col min="7" max="7" customWidth="true" width="24.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,10 +550,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -561,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>24</v>
@@ -570,10 +579,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
@@ -596,7 +605,7 @@
         <v>90909090</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>

--- a/Patient_List.xlsx
+++ b/Patient_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288DF93-FB19-43B8-94A8-F5B84D60EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3261510-33EF-4F3D-8764-088A20A86C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Patient ID</t>
   </si>
@@ -103,22 +103,22 @@
     <t>Card Details</t>
   </si>
   <si>
-    <t>oasdoad@mamamama.com</t>
-  </si>
-  <si>
-    <t>12983283</t>
-  </si>
-  <si>
-    <t>12983283, askdoaskdoaskdoas</t>
-  </si>
-  <si>
-    <t>12983283, askdoaskdoaskdoas, oaksd,oasd</t>
-  </si>
-  <si>
-    <t>oqNin17WeN2es8ny0ZL9kA==:Bwzv0bwTtUrKQA3UlRPOog8BOlhGmKVjU9gjAfYQkYA=</t>
-  </si>
-  <si>
-    <t>aosksdod@ioioioi.com</t>
+    <t>lasmdl@amlsmd.com</t>
+  </si>
+  <si>
+    <t>Past Treatments</t>
+  </si>
+  <si>
+    <t>lol, asdqwe, lala, ijqwe, hi, qwet, ASD, asdqw</t>
+  </si>
+  <si>
+    <t>asdqwesdfe</t>
+  </si>
+  <si>
+    <t>asdqwesdfe, q123</t>
+  </si>
+  <si>
+    <t>IxHIOx+PHHqiojVq3R3Fow==:F8KlJo7y7JkPSnEdGIXH0UfZ0/COANxEI4zqyknQ9UA=</t>
   </si>
 </sst>
 </file>
@@ -512,19 +512,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="31.6640625"/>
-    <col min="7" max="7" customWidth="true" width="24.5546875"/>
+    <col min="6" max="6" customWidth="true" width="31.7109375"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" customWidth="true" width="51.0"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +552,13 @@
         <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -570,19 +575,22 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="J2" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
@@ -605,7 +613,7 @@
         <v>90909090</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>

--- a/Patient_List.xlsx
+++ b/Patient_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3261510-33EF-4F3D-8764-088A20A86C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF764B-6336-41A3-9ADB-129609562718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Patient ID</t>
   </si>
@@ -94,38 +94,22 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>12341234</t>
-  </si>
-  <si>
-    <t>lol, asdqwe, lala, ijqwe, hi, qwet, ASD</t>
-  </si>
-  <si>
     <t>Card Details</t>
   </si>
   <si>
-    <t>lasmdl@amlsmd.com</t>
-  </si>
-  <si>
     <t>Past Treatments</t>
   </si>
   <si>
-    <t>lol, asdqwe, lala, ijqwe, hi, qwet, ASD, asdqw</t>
-  </si>
-  <si>
-    <t>asdqwesdfe</t>
-  </si>
-  <si>
-    <t>asdqwesdfe, q123</t>
-  </si>
-  <si>
-    <t>IxHIOx+PHHqiojVq3R3Fow==:F8KlJo7y7JkPSnEdGIXH0UfZ0/COANxEI4zqyknQ9UA=</t>
+    <t>alice.brown@example.com</t>
+  </si>
+  <si>
+    <t>92929292</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,15 +499,15 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="31.7109375"/>
-    <col min="7" max="7" customWidth="true" width="24.5703125"/>
-    <col min="8" max="8" customWidth="true" width="51.0"/>
-    <col min="9" max="9" customWidth="true" width="17.5703125"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -552,87 +536,78 @@
         <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>90909090</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>88888888</v>
       </c>
     </row>
